--- a/SK Table S-3 short.xlsx
+++ b/SK Table S-3 short.xlsx
@@ -451,32 +451,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Lat</t>
+          <t>d18O_AC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>d18O_error</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>Dp17O_AC</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>T_measured</t>
+          <t>Dp17O_error</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>d18Osw_measured</t>
+          <t>Replicates</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>T_database</t>
+          <t>theta_coral</t>
         </is>
       </c>
     </row>
@@ -497,24 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>70.26733299999999</v>
+        <v>30.58012501194161</v>
       </c>
       <c r="E2" t="n">
-        <v>22.456167</v>
+        <v>0.0434689841782345</v>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>-101.805472833691</v>
       </c>
       <c r="G2" t="n">
-        <v>5.9</v>
+        <v>5.29327962659497</v>
       </c>
       <c r="H2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3.15(±1.01)</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5273</v>
       </c>
     </row>
     <row r="3">
@@ -534,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23.83535</v>
+        <v>29.88024877744328</v>
       </c>
       <c r="E3" t="n">
-        <v>-89</v>
+        <v>0.1107836922247373</v>
       </c>
       <c r="F3" t="n">
-        <v>558</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>-109.2673217803011</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.104100411027024</v>
+      </c>
       <c r="H3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>7.40(±1.00)</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5293</v>
       </c>
     </row>
     <row r="4">
@@ -569,20 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-9.822867</v>
+        <v>30.81164645826902</v>
       </c>
       <c r="E4" t="n">
-        <v>12.773817</v>
+        <v>0.0731014565075889</v>
       </c>
       <c r="F4" t="n">
-        <v>374</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10.17(±1.00)</t>
-        </is>
+        <v>-105.6250785103714</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.62436345753013</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5296</v>
       </c>
     </row>
     <row r="5">
@@ -602,24 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>51.449</v>
+        <v>32.7188439078086</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.752667</v>
+        <v>0.0178461209160522</v>
       </c>
       <c r="F5" t="n">
-        <v>881</v>
+        <v>-108.8330475078045</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>3.504097648983512</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>8.92(±1.00)</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5308</v>
       </c>
     </row>
     <row r="6">
@@ -639,20 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53.515167</v>
+        <v>30.67590518554289</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.352667</v>
+        <v>0.1071829563650286</v>
       </c>
       <c r="F6" t="n">
-        <v>696</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>9.02(±1.00)</t>
-        </is>
+        <v>-107.5587821075867</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.381686946211433</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5295</v>
       </c>
     </row>
     <row r="7">
@@ -672,24 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>41.289812</v>
+        <v>30.3573893219268</v>
       </c>
       <c r="E7" t="n">
-        <v>17.278115</v>
+        <v>0.002143732251549</v>
       </c>
       <c r="F7" t="n">
-        <v>573</v>
+        <v>-102.5677714371227</v>
       </c>
       <c r="G7" t="n">
-        <v>13.5</v>
+        <v>8.67621189493755</v>
       </c>
       <c r="H7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>15.14(±1.00)</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5298</v>
       </c>
     </row>
     <row r="8">
@@ -709,24 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41.289812</v>
+        <v>30.61187297224638</v>
       </c>
       <c r="E8" t="n">
-        <v>17.278115</v>
+        <v>0.1725414711302221</v>
       </c>
       <c r="F8" t="n">
-        <v>573</v>
+        <v>-92.67850877459516</v>
       </c>
       <c r="G8" t="n">
-        <v>13.5</v>
+        <v>5.395545308370481</v>
       </c>
       <c r="H8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>15.14(±1.00)</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5278</v>
       </c>
     </row>
     <row r="9">
@@ -746,20 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-42.727</v>
+        <v>31.60901525660051</v>
       </c>
       <c r="E9" t="n">
-        <v>179.897</v>
+        <v>0.0586081468543779</v>
       </c>
       <c r="F9" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>4.95(±1.00)</t>
-        </is>
+        <v>-107.5688588061965</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.067667248446712</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5286999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -779,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16.957248</v>
+        <v>26.93127487909146</v>
       </c>
       <c r="E10" t="n">
-        <v>-88.043581</v>
+        <v>0.1551571090134556</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>-84.06159022654869</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.285629248034622</v>
+      </c>
       <c r="H10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>27.24(±1.31)</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5283</v>
       </c>
     </row>
     <row r="11">
@@ -814,24 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.268056</v>
+        <v>27.5001937633524</v>
       </c>
       <c r="E11" t="n">
-        <v>72.935278</v>
+        <v>0.1329722740101692</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>-88.10555634094897</v>
       </c>
       <c r="G11" t="n">
-        <v>29.3</v>
+        <v>4.495379647657267</v>
       </c>
       <c r="H11" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>28.11(±1.14)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5296</v>
       </c>
     </row>
     <row r="12">
@@ -851,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>16.957248</v>
+        <v>26.38405933808917</v>
       </c>
       <c r="E12" t="n">
-        <v>-88.043581</v>
+        <v>0.0563064227566446</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>-88.65661834565408</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8.46357131307928</v>
+      </c>
       <c r="H12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>27.24(±1.31)</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5291</v>
       </c>
     </row>
     <row r="13">
@@ -886,24 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34.999667</v>
+        <v>32.22806122840211</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.075167</v>
+        <v>0.1313232950919599</v>
       </c>
       <c r="F13" t="n">
-        <v>738</v>
+        <v>-109.2386767053668</v>
       </c>
       <c r="G13" t="n">
-        <v>10.3</v>
+        <v>9.657746796283586</v>
       </c>
       <c r="H13" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>11.16(±1.00)</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5313</v>
       </c>
     </row>
     <row r="14">
@@ -923,24 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30.124612</v>
+        <v>33.19834005028838</v>
       </c>
       <c r="E14" t="n">
-        <v>-42.119351</v>
+        <v>0.1089527794493589</v>
       </c>
       <c r="F14" t="n">
-        <v>806.0599999999999</v>
+        <v>-100.3932304048938</v>
       </c>
       <c r="G14" t="n">
-        <v>10.02</v>
+        <v>4.055456900203092</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>9.98(±1.00)</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5286</v>
       </c>
     </row>
     <row r="15">
@@ -960,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28.816484</v>
+        <v>27.62711595015548</v>
       </c>
       <c r="E15" t="n">
-        <v>48.775413</v>
+        <v>0.1559314493842624</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>-91.14279761184284</v>
       </c>
       <c r="G15" t="n">
-        <v>26</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>25.84(±3.51)</t>
-        </is>
+        <v>4.519707772190463</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5296</v>
       </c>
     </row>
     <row r="16">
@@ -995,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28.816484</v>
+        <v>27.30477445983115</v>
       </c>
       <c r="E16" t="n">
-        <v>48.775413</v>
+        <v>0.1083919646451651</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>-85.31569428282992</v>
       </c>
       <c r="G16" t="n">
-        <v>26</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>25.84(±3.51)</t>
-        </is>
+        <v>7.611955730256021</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5283</v>
       </c>
     </row>
     <row r="17">
@@ -1030,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17.387784</v>
+        <v>26.80760915506334</v>
       </c>
       <c r="E17" t="n">
-        <v>-87.939841</v>
+        <v>0.1455699396660625</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>-90.57858398402983</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.642574906592215</v>
+      </c>
       <c r="H17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>27.29(±1.42)</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5296</v>
       </c>
     </row>
     <row r="18">
@@ -1065,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-44.498</v>
+        <v>32.69847014055244</v>
       </c>
       <c r="E18" t="n">
-        <v>-174.817</v>
+        <v>0.09995020359121259</v>
       </c>
       <c r="F18" t="n">
-        <v>1386</v>
+        <v>-117.1338868022289</v>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>3.02(±1.00)</t>
-        </is>
+        <v>5.180753601543485</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5306999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/SK Table S-3 short.xlsx
+++ b/SK Table S-3 short.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,6 +1075,41 @@
         <v>0.5306999999999999</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>JBC03</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>warm-water coral</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Porites porites</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>27.77602417336175</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-86.47633988485381</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SK Table S-3 short.xlsx
+++ b/SK Table S-3 short.xlsx
@@ -1107,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5288</v>
+        <v>0.5286999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/SK Table S-3 short.xlsx
+++ b/SK Table S-3 short.xlsx
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>27.77602417336175</v>
+        <v>28.61922903083041</v>
       </c>
       <c r="E19" t="n">
         <v>0.6</v>
       </c>
       <c r="F19" t="n">
-        <v>-86.47633988485381</v>
+        <v>-91.81922204437144</v>
       </c>
       <c r="G19" t="n">
         <v>13</v>
@@ -1107,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5286999999999999</v>
+        <v>0.5303</v>
       </c>
     </row>
   </sheetData>
